--- a/data/input/employee_absence_data_35.xlsx
+++ b/data/input/employee_absence_data_35.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93461</v>
+        <v>73962</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Evelyn Moreira</t>
+          <t>Mariana Pacheco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,48 +485,48 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45091</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>4038.9</v>
+        <v>5014.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>42382</v>
+        <v>6229</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Arthur Leão</t>
+          <t>Cauã Vasconcelos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45098</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>3026.21</v>
+        <v>3903.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66802</v>
+        <v>86469</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aylla Gomes</t>
+          <t>Isabella Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -536,26 +536,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45087</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>9546.6</v>
+        <v>4295.07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66778</v>
+        <v>12071</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexandre Vargas</t>
+          <t>Dr. Levi Viana</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,142 +565,142 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45106</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>2620.58</v>
+        <v>8412.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91707</v>
+        <v>80174</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luan Moreira</t>
+          <t>Rafael Gonçalves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45097</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>6026.22</v>
+        <v>6560.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33392</v>
+        <v>60741</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juliana Martins</t>
+          <t>Hellena Vasconcelos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>6992.41</v>
+        <v>3293.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>30366</v>
+        <v>58680</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vicente Moraes</t>
+          <t>Alice Vasconcelos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45105</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>2795.01</v>
+        <v>3085.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>71608</v>
+        <v>4483</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arthur Miguel Siqueira</t>
+          <t>Mateus da Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45102</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>11404.43</v>
+        <v>7799.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68005</v>
+        <v>39374</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiza da Rocha</t>
+          <t>Eloah Freitas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -710,31 +710,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45098</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>6415.08</v>
+        <v>5001.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54124</v>
+        <v>20484</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ian Pimenta</t>
+          <t>Ana Júlia Novais</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45095</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>4935.07</v>
+        <v>4380.24</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_35.xlsx
+++ b/data/input/employee_absence_data_35.xlsx
@@ -464,190 +464,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73962</v>
+        <v>90553</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mariana Pacheco</t>
+          <t>Ravi Lucca Camargo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45100</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>5014.94</v>
+        <v>5439.93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6229</v>
+        <v>70346</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cauã Vasconcelos</t>
+          <t>Ana Almeida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45096</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>3903.68</v>
+        <v>6776.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>86469</v>
+        <v>25863</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabella Pereira</t>
+          <t>Cecília Teixeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45101</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>4295.07</v>
+        <v>4701.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12071</v>
+        <v>90534</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Levi Viana</t>
+          <t>Mariane Campos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45095</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>8412.51</v>
+        <v>6991.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80174</v>
+        <v>48773</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rafael Gonçalves</t>
+          <t>Ana Vitória da Paz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45091</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>6560.05</v>
+        <v>9155.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60741</v>
+        <v>89336</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hellena Vasconcelos</t>
+          <t>Stephany Mendonça</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45095</v>
+        <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>3293.6</v>
+        <v>7116.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>58680</v>
+        <v>84183</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alice Vasconcelos</t>
+          <t>Maysa Moreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,100 +656,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45086</v>
+        <v>45091</v>
       </c>
       <c r="G8" t="n">
-        <v>3085.02</v>
+        <v>8482.360000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4483</v>
+        <v>14754</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mateus da Rocha</t>
+          <t>Thiago Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45098</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>7799.98</v>
+        <v>4143.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>39374</v>
+        <v>97835</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eloah Freitas</t>
+          <t>Igor Nunes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45088</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>5001.39</v>
+        <v>6133.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20484</v>
+        <v>49800</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Júlia Novais</t>
+          <t>Emanuel Santos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45101</v>
+        <v>45096</v>
       </c>
       <c r="G11" t="n">
-        <v>4380.24</v>
+        <v>4338.84</v>
       </c>
     </row>
   </sheetData>
